--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Epha1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Efna5-Epha1.xlsx
@@ -531,22 +531,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H2">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J2">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N2">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O2">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P2">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q2">
-        <v>0.4200607074906666</v>
+        <v>1.554965275378222</v>
       </c>
       <c r="R2">
-        <v>3.780546367416</v>
+        <v>13.994687478404</v>
       </c>
       <c r="S2">
-        <v>0.01427965885259314</v>
+        <v>0.04625720477364667</v>
       </c>
       <c r="T2">
-        <v>0.01427965885259314</v>
+        <v>0.04625720477364666</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -593,22 +593,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H3">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J3">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>17.553807</v>
       </c>
       <c r="O3">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P3">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q3">
-        <v>0.4173300588869999</v>
+        <v>1.585077565332</v>
       </c>
       <c r="R3">
-        <v>3.755970529983</v>
+        <v>14.265698087988</v>
       </c>
       <c r="S3">
-        <v>0.01418683243533644</v>
+        <v>0.04715298706837122</v>
       </c>
       <c r="T3">
-        <v>0.01418683243533644</v>
+        <v>0.04715298706837122</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -655,22 +655,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H4">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I4">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J4">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N4">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O4">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P4">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q4">
-        <v>0.4381775102693334</v>
+        <v>1.831244154141334</v>
       </c>
       <c r="R4">
-        <v>3.943597592424</v>
+        <v>16.481197387272</v>
       </c>
       <c r="S4">
-        <v>0.01489552641308097</v>
+        <v>0.05447596622892753</v>
       </c>
       <c r="T4">
-        <v>0.01489552641308097</v>
+        <v>0.05447596622892753</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -717,22 +717,22 @@
         <v>25</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.071323</v>
+        <v>0.2708946666666667</v>
       </c>
       <c r="H5">
-        <v>0.213969</v>
+        <v>0.812684</v>
       </c>
       <c r="I5">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="J5">
-        <v>0.0483071206658679</v>
+        <v>0.1616296696421007</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N5">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O5">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P5">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q5">
-        <v>0.1454687028223333</v>
+        <v>0.4619968577755555</v>
       </c>
       <c r="R5">
-        <v>1.309218325401</v>
+        <v>4.15797171998</v>
       </c>
       <c r="S5">
-        <v>0.004945102964857352</v>
+        <v>0.01374351157115524</v>
       </c>
       <c r="T5">
-        <v>0.004945102964857352</v>
+        <v>0.01374351157115524</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>3.174364</v>
       </c>
       <c r="I6">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J6">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N6">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O6">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P6">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q6">
-        <v>6.231863436632888</v>
+        <v>6.073733199387113</v>
       </c>
       <c r="R6">
-        <v>56.08677092969599</v>
+        <v>54.66359879448401</v>
       </c>
       <c r="S6">
-        <v>0.2118476741675334</v>
+        <v>0.1806817970749912</v>
       </c>
       <c r="T6">
-        <v>0.2118476741675334</v>
+        <v>0.1806817970749912</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>3.174364</v>
       </c>
       <c r="I7">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J7">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>17.553807</v>
       </c>
       <c r="O7">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P7">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q7">
-        <v>6.191352555971998</v>
+        <v>6.191352555972</v>
       </c>
       <c r="R7">
-        <v>55.72217300374799</v>
+        <v>55.722173003748</v>
       </c>
       <c r="S7">
-        <v>0.2104705361840469</v>
+        <v>0.1841807450894852</v>
       </c>
       <c r="T7">
-        <v>0.2104705361840469</v>
+        <v>0.1841807450894851</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>3.174364</v>
       </c>
       <c r="I8">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J8">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N8">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O8">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P8">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q8">
-        <v>6.500637541927111</v>
+        <v>7.152885399634668</v>
       </c>
       <c r="R8">
-        <v>58.505737877344</v>
+        <v>64.375968596712</v>
       </c>
       <c r="S8">
-        <v>0.2209844547889338</v>
+        <v>0.2127844845749681</v>
       </c>
       <c r="T8">
-        <v>0.2209844547889338</v>
+        <v>0.212784484574968</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>3.174364</v>
       </c>
       <c r="I9">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673385</v>
       </c>
       <c r="J9">
-        <v>0.7166663618813337</v>
+        <v>0.6313295261673384</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N9">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O9">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P9">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q9">
-        <v>2.158119229261778</v>
+        <v>1.804571264397778</v>
       </c>
       <c r="R9">
-        <v>19.423073063356</v>
+        <v>16.24114137958</v>
       </c>
       <c r="S9">
-        <v>0.07336369674081966</v>
+        <v>0.05368249942789403</v>
       </c>
       <c r="T9">
-        <v>0.07336369674081966</v>
+        <v>0.05368249942789401</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1039,10 +1039,10 @@
         <v>1.041014</v>
       </c>
       <c r="I10">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J10">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>5.889554666666666</v>
+        <v>5.740110333333334</v>
       </c>
       <c r="N10">
-        <v>17.668664</v>
+        <v>17.220331</v>
       </c>
       <c r="O10">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="P10">
-        <v>0.295601531529132</v>
+        <v>0.2861925343043439</v>
       </c>
       <c r="Q10">
-        <v>2.043702953921778</v>
+        <v>1.991845072848222</v>
       </c>
       <c r="R10">
-        <v>18.393326585296</v>
+        <v>17.926605655634</v>
       </c>
       <c r="S10">
-        <v>0.06947419850900548</v>
+        <v>0.05925353245570605</v>
       </c>
       <c r="T10">
-        <v>0.06947419850900548</v>
+        <v>0.05925353245570605</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1101,10 +1101,10 @@
         <v>1.041014</v>
       </c>
       <c r="I11">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J11">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,10 +1119,10 @@
         <v>17.553807</v>
       </c>
       <c r="O11">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="P11">
-        <v>0.2936799428279805</v>
+        <v>0.2917347240316885</v>
       </c>
       <c r="Q11">
         <v>2.030417648922</v>
@@ -1131,10 +1131,10 @@
         <v>18.273758840298</v>
       </c>
       <c r="S11">
-        <v>0.0690225742085972</v>
+        <v>0.06040099187383215</v>
       </c>
       <c r="T11">
-        <v>0.0690225742085972</v>
+        <v>0.06040099187383215</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1163,10 +1163,10 @@
         <v>1.041014</v>
       </c>
       <c r="I12">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J12">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>6.143565333333334</v>
+        <v>6.759986</v>
       </c>
       <c r="N12">
-        <v>18.430696</v>
+        <v>20.279958</v>
       </c>
       <c r="O12">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="P12">
-        <v>0.3083505331669587</v>
+        <v>0.3370418707750538</v>
       </c>
       <c r="Q12">
-        <v>2.131845840638222</v>
+        <v>2.345746688601334</v>
       </c>
       <c r="R12">
-        <v>19.186612565744</v>
+        <v>21.111720197412</v>
       </c>
       <c r="S12">
-        <v>0.0724705519649439</v>
+        <v>0.06978141997115825</v>
       </c>
       <c r="T12">
-        <v>0.0724705519649439</v>
+        <v>0.06978141997115825</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1225,10 +1225,10 @@
         <v>1.041014</v>
       </c>
       <c r="I13">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="J13">
-        <v>0.2350265174527984</v>
+        <v>0.2070408041905609</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>2.039576333333333</v>
+        <v>1.705448333333333</v>
       </c>
       <c r="N13">
-        <v>6.118729</v>
+        <v>5.116345</v>
       </c>
       <c r="O13">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="P13">
-        <v>0.1023679924759288</v>
+        <v>0.0850308708889137</v>
       </c>
       <c r="Q13">
-        <v>0.7077425056895555</v>
+        <v>0.5917985304255555</v>
       </c>
       <c r="R13">
-        <v>6.369682551206001</v>
+        <v>5.326186773830001</v>
       </c>
       <c r="S13">
-        <v>0.02405919277025182</v>
+        <v>0.01760485988986445</v>
       </c>
       <c r="T13">
-        <v>0.02405919277025182</v>
+        <v>0.01760485988986445</v>
       </c>
     </row>
   </sheetData>
